--- a/genshin/536434556210906673_2021-06-15_14-00-03.xlsx
+++ b/genshin/536434556210906673_2021-06-15_14-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-23 11:14:10</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44370.4681712963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4774904771</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-22 22:35:34</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44369.94136574074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-22 19:34:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44369.81552083333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,10 +786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-22 18:46:15</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44369.78211805555</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-22 02:23:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44369.09934027777</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -919,10 +925,8 @@
           <t>4765661174</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-21 10:16:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44368.42839120371</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +1002,8 @@
           <t>4764663486</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-21 01:21:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44368.05648148148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-20 22:47:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44367.9496875</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1144,10 +1144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-20 18:47:58</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44367.78331018519</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-20 14:45:21</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44367.61482638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1286,10 +1282,8 @@
           <t>4759924463</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-20 11:33:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44367.48126157407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>4759777923</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-20 11:04:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44367.46175925926</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1427,10 +1419,8 @@
           <t>4759192160</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-20 08:52:33</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44367.36982638889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-19 21:51:30</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44366.91076388889</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-19 17:33:15</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44366.73142361111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1644,10 +1630,8 @@
           <t>4754060441</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-19 15:50:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44366.65987268519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1719,10 +1703,8 @@
           <t>4753241407</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-19 14:55:41</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44366.62200231481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1794,10 +1776,8 @@
           <t>4753241407</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-19 13:47:50</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44366.57488425926</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1873,10 +1853,8 @@
           <t>4754060441</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-19 12:37:53</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44366.52630787037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1944,10 +1922,8 @@
           <t>4753584681</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-19 11:16:37</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44366.46987268519</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2015,10 +1991,8 @@
           <t>4753241407</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-19 10:02:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44366.41820601852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2090,10 +2064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-19 10:01:33</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44366.41774305556</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2165,10 +2137,8 @@
           <t>4752868919</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-19 08:21:24</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44366.34819444444</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2232,10 +2202,8 @@
           <t>4752086283</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-19 00:50:25</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44366.03501157407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2307,10 +2275,8 @@
           <t>4749433250</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-18 17:24:01</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44365.72501157408</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2370,10 +2336,8 @@
           <t>4749406922</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-18 17:18:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44365.72099537037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2445,10 +2409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-17 23:44:07</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44364.9889699074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2520,10 +2482,8 @@
           <t>4745559739</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-17 22:03:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44364.91921296297</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2587,10 +2547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-17 22:02:38</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44364.91849537037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2654,10 +2612,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-17 21:15:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44364.88570601852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2718,10 +2674,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-17 20:23:57</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44364.84996527778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2797,10 +2751,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-17 20:21:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44364.84796296297</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2876,10 +2828,8 @@
           <t>4744738855</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-17 19:41:54</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44364.82076388889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2943,10 +2893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-17 09:32:03</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44364.39725694444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3014,10 +2962,8 @@
           <t>4740684897</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-16 23:43:31</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44363.98855324074</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3081,10 +3027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-16 21:28:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44363.89454861111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3152,10 +3096,8 @@
           <t>4739537036</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-16 20:43:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44363.86358796297</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3231,10 +3173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-16 20:08:32</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44363.83925925926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3310,10 +3250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-16 20:06:39</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44363.83795138889</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
@@ -3385,10 +3323,8 @@
           <t>4739092297</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:29:17</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44363.81200231481</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3456,10 +3392,8 @@
           <t>4733381664</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:09:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44363.79851851852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3535,10 +3469,8 @@
           <t>4738980157</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:09:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44363.79833333333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3614,10 +3546,8 @@
           <t>4738610819</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-16 18:09:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44363.75648148148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3694,10 +3624,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-16 17:42:11</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44363.73762731482</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3758,10 +3686,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-16 16:22:24</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44363.68222222223</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3825,10 +3751,8 @@
           <t>4737767667</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-16 15:04:18</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44363.62798611111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3904,10 +3828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-16 14:31:02</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44363.60488425926</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3979,10 +3901,8 @@
           <t>4737482613</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:55:06</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44363.57993055556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4046,10 +3966,8 @@
           <t>4737348373</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:26:46</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44363.56025462963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4117,10 +4035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:56:51</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44363.53947916667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4196,10 +4112,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:48:35</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44363.53373842593</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4271,10 +4185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:30:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44363.52121527777</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4338,10 +4250,8 @@
           <t>4736988418</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:24:52</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44363.51726851852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4409,10 +4319,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:23:38</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44363.51641203704</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4480,10 +4388,8 @@
           <t>4735421992</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:01:45</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44363.50121527778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4555,10 +4461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:56:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44363.4560300926</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4626,10 +4530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:54:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44363.45417824074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4693,10 +4595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:00:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44363.41673611111</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4756,10 +4656,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:46:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44363.40712962963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4823,10 +4721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:42:52</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44363.40476851852</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4895,10 +4791,8 @@
           <t>4734570873</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:30:57</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44363.39649305555</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4966,10 +4860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:21:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44363.38994212963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5037,10 +4929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:24:33</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44363.35038194444</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5116,10 +5006,8 @@
           <t>4735426305</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:52:06</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44363.32784722222</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5183,10 +5071,8 @@
           <t>4735904711</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:50:12</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44363.32652777778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5262,10 +5148,8 @@
           <t>4735544992</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:12:39</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44363.30045138889</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5341,10 +5225,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-16 05:27:24</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44363.22736111111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5412,10 +5294,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-16 05:22:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44363.22417824074</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5483,10 +5363,8 @@
           <t>4735622653</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-16 03:14:34</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44363.13511574074</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5558,10 +5436,8 @@
           <t>4735618665</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-16 03:09:58</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44363.1319212963</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5637,10 +5513,8 @@
           <t>4735544992</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:23:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44363.09958333334</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5704,10 +5578,8 @@
           <t>4735550290</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:21:38</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44363.09835648148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5771,10 +5643,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:10:42</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44363.09076388889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5842,10 +5712,8 @@
           <t>4735520042</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:06:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44363.08767361111</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5914,10 +5782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:06:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44363.08758101852</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5986,10 +5852,8 @@
           <t>4735515038</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:05:38</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44363.08724537037</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6057,10 +5921,8 @@
           <t>4735426305</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:30:59</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44363.06318287037</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6124,10 +5986,8 @@
           <t>4735418740</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:29:35</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44363.06221064815</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6195,10 +6055,8 @@
           <t>4735421992</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:28:23</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44363.06137731481</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6266,10 +6124,8 @@
           <t>4733255282</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:19:17</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44363.05505787037</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6337,10 +6193,8 @@
           <t>4735382106</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:17:23</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44363.05373842592</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6408,10 +6262,8 @@
           <t>4735368869</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:14:29</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44363.05172453704</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6479,10 +6331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:40:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44363.02827546297</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6550,10 +6400,8 @@
           <t>4735237290</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:40:29</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44363.02811342593</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6630,10 +6478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:36:42</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44363.02548611111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6701,10 +6547,8 @@
           <t>4735186417</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:29:27</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44363.02045138889</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6768,10 +6612,8 @@
           <t>4731909375</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:19:23</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44363.01346064815</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6839,10 +6681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:15:51</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44363.01100694444</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6914,10 +6754,8 @@
           <t>4735116956</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:14:23</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44363.00998842593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6985,10 +6823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:01:31</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44363.00105324074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7064,10 +6900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:55:06</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44362.99659722222</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7131,10 +6965,8 @@
           <t>4735008252</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:54:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44362.9960300926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7194,10 +7026,8 @@
           <t>4734984039</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:50:59</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44362.99373842592</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7269,10 +7099,8 @@
           <t>4733255282</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:44:48</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44362.98944444444</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7336,10 +7164,8 @@
           <t>4734947657</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:43:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44362.98855324074</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7403,10 +7229,8 @@
           <t>4734570873</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:39:01</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44362.98542824074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7474,10 +7298,8 @@
           <t>4733381664</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:38:35</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44362.98512731482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7545,10 +7367,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:35:15</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44362.9828125</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7624,10 +7444,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:34:57</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44362.98260416667</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7703,10 +7521,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:33:33</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44362.98163194444</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7770,10 +7586,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:32:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44362.98090277778</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7850,10 +7664,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:28:43</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44362.97827546296</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7917,10 +7729,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:26:52</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44362.97699074074</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7996,10 +7806,8 @@
           <t>4734829082</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:25:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44362.97579861111</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8063,10 +7871,8 @@
           <t>4734775006</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:24:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44362.97549768518</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8142,10 +7948,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:22:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44362.97423611111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8221,10 +8025,8 @@
           <t>4734792997</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:19:30</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44362.971875</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8295,10 +8097,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:17:49</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44362.97070601852</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8366,10 +8166,8 @@
           <t>4734775006</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:15:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44362.9693287037</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8433,10 +8231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:13:47</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44362.96790509259</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8512,10 +8308,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:13:33</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44362.96774305555</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8591,10 +8385,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:07:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44362.96346064815</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8670,10 +8462,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:04:12</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44362.96125</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8741,10 +8531,8 @@
           <t>4734701271</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:04:11</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44362.96123842592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8816,10 +8604,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:01:21</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44362.95927083334</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8895,10 +8681,8 @@
           <t>4733255282</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:51:40</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44362.9525462963</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8966,10 +8750,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:47:30</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44362.94965277778</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9033,10 +8815,8 @@
           <t>4734587363</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:47:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44362.94951388889</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9104,10 +8884,8 @@
           <t>4734496476</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:46:50</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44362.94918981481</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9179,10 +8957,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:45:31</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44362.94827546296</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9254,10 +9030,8 @@
           <t>4734570873</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:44:01</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44362.94723379629</v>
       </c>
       <c r="I122" t="n">
         <v>7</v>
@@ -9329,10 +9103,8 @@
           <t>4733381664</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:32:49</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44362.93945601852</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9396,10 +9168,8 @@
           <t>4734496476</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:32:37</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44362.93931712963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9463,10 +9233,8 @@
           <t>4734496476</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:31:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44362.93883101852</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9538,10 +9306,8 @@
           <t>4734495202</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:31:19</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44362.93841435185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9613,10 +9379,8 @@
           <t>4732764376</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:31:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44362.93824074074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9680,10 +9444,8 @@
           <t>4734485201</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:30:45</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44362.93802083333</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9755,10 +9517,8 @@
           <t>4734420333</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:30:35</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44362.93790509259</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9822,10 +9582,8 @@
           <t>4734483015</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:30:15</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44362.93767361111</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9894,10 +9652,8 @@
           <t>4731891756</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:27:13</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44362.93556712963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9965,10 +9721,8 @@
           <t>4734448690</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:25:36</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44362.93444444444</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10044,10 +9798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:25:29</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44362.93436342593</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10123,10 +9875,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:25:14</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44362.93418981481</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10202,10 +9952,8 @@
           <t>4734432075</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:22:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44362.93240740741</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10269,10 +10017,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:21:53</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44362.93186342593</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10344,10 +10090,8 @@
           <t>4734420333</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:19:46</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44362.93039351852</v>
       </c>
       <c r="I137" t="n">
         <v>29</v>
@@ -10411,10 +10155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:19:29</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44362.93019675926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10482,10 +10224,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:18:58</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44362.92983796296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10557,10 +10297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:18:43</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44362.92966435185</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10636,10 +10374,8 @@
           <t>4734398382</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:18:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44362.92929398148</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10711,10 +10447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:08:50</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44362.92280092592</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10782,10 +10516,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:05:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44362.92081018518</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10853,10 +10585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:05:13</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44362.92028935185</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10924,10 +10654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:04:14</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44362.91960648148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11003,10 +10731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:59:40</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44362.91643518519</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11074,10 +10800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:53:25</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44362.91209490741</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11145,10 +10869,8 @@
           <t>4732062066</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:51:47</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44362.91096064815</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11212,10 +10934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:48:16</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44362.90851851852</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11291,10 +11011,8 @@
           <t>4732541452</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:45:05</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44362.90630787037</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11370,10 +11088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:43:17</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44362.90505787037</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11443,10 +11159,8 @@
           <t>4734185809</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:43:12</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44362.905</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11514,10 +11228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:41:31</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44362.90383101852</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11587,10 +11299,8 @@
           <t>4734156317</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:38:30</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44362.90173611111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11662,10 +11372,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:36:18</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44362.90020833333</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -11733,10 +11441,8 @@
           <t>4734086986</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:26:43</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44362.89355324074</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11800,10 +11506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:25:14</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44362.89252314815</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11867,10 +11571,8 @@
           <t>4734073250</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:24:53</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44362.89228009259</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11934,10 +11636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:21:44</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44362.89009259259</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12004,10 +11704,8 @@
           <t>4734031695</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:18:08</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44362.88759259259</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12075,10 +11773,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:15:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44362.88577546296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12154,10 +11850,8 @@
           <t>4734003140</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:13:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44362.88438657407</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12233,10 +11927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:12:35</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44362.88373842592</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12296,10 +11988,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:11:34</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44362.88303240741</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12367,10 +12057,8 @@
           <t>4733970592</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:06:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44362.87974537037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12434,10 +12122,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:58:03</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44362.87364583334</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12501,10 +12187,8 @@
           <t>4733910596</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:56:45</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44362.87274305556</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12568,10 +12252,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:54:17</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44362.8710300926</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12639,10 +12321,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:38:24</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44362.86</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12718,10 +12398,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:36:10</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44362.85844907408</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12793,10 +12471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:16:18</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44362.84465277778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12868,10 +12544,8 @@
           <t>4733655239</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:12:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44362.84199074074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12935,10 +12609,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:10:13</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44362.84042824074</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -12998,10 +12670,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:09:41</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44362.84005787037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13069,10 +12739,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:07:15</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44362.83836805556</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13140,10 +12808,8 @@
           <t>4733613612</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:06:23</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44362.8377662037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13219,10 +12885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:05:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44362.83699074074</v>
       </c>
       <c r="I177" t="n">
         <v>7</v>
@@ -13298,10 +12962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:03:40</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44362.83587962963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13377,10 +13039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:00:02</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44362.83335648148</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13456,10 +13116,8 @@
           <t>4732062066</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:58:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44362.83260416667</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13531,10 +13189,8 @@
           <t>4733564117</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:57:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44362.83180555556</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13606,10 +13262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:51:48</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44362.82763888889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13673,10 +13327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:48:17</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44362.82519675926</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13752,10 +13404,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:47:34</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44362.82469907407</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13823,10 +13473,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:45:29</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44362.82325231482</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13903,10 +13551,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:43:43</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44362.82202546296</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13974,10 +13620,8 @@
           <t>4733424100</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:43:17</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44362.82172453704</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14041,10 +13685,8 @@
           <t>4733424100</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:41:21</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44362.82038194445</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14112,10 +13754,8 @@
           <t>4733464243</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:41:06</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44362.82020833333</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14179,10 +13819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:41:05</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44362.82019675926</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14250,10 +13888,8 @@
           <t>4733424100</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:39:21</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44362.81899305555</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14317,10 +13953,8 @@
           <t>4732541452</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:33:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44362.81467592593</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14380,10 +14014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:27:27</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44362.81072916667</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14451,10 +14083,8 @@
           <t>4733381664</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:25:49</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44362.8095949074</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14522,10 +14152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:21:41</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44362.80672453704</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14597,10 +14225,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:18:37</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44362.80459490741</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14668,10 +14294,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:16:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44362.8028125</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14743,10 +14367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:09:28</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44362.79824074074</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14818,10 +14440,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:08:00</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44362.79722222222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14885,10 +14505,8 @@
           <t>4733255282</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:04:22</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44362.79469907407</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14956,10 +14574,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:04:09</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44362.79454861111</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15027,10 +14643,8 @@
           <t>4733242355</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:02:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44362.79371527778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15102,10 +14716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:59:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44362.79123842593</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15181,10 +14793,8 @@
           <t>4733207834</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:57:36</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44362.79</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15256,10 +14866,8 @@
           <t>4733215740</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:57:15</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44362.78975694445</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15335,10 +14943,8 @@
           <t>4733215678</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:57:13</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44362.78973379629</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15410,10 +15016,8 @@
           <t>4733206085</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:56:43</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44362.78938657408</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15481,10 +15085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:55:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44362.78862268518</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15547,10 +15149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:03</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44362.78614583334</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15626,10 +15226,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44362.78612268518</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15693,10 +15291,8 @@
           <t>4731964267</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:51:23</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44362.78568287037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15768,10 +15364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:50:09</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44362.78482638889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15839,10 +15433,8 @@
           <t>4733129801</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:44:24</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44362.78083333333</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15906,10 +15498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:36:41</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44362.77547453704</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15973,10 +15563,8 @@
           <t>4733085100</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:35:12</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44362.77444444445</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16048,10 +15636,8 @@
           <t>4733067343</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:33:09</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44362.77302083333</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16123,10 +15709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:31:08</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44362.77162037037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16194,10 +15778,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:30:42</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44362.77131944444</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16265,10 +15847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:30:06</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44362.77090277777</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16332,10 +15912,8 @@
           <t>4733033786</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:28:32</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44362.76981481481</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16403,10 +15981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:28:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44362.76945601852</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16474,10 +16050,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:27:51</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44362.76934027778</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16553,10 +16127,8 @@
           <t>4733040459</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:27:18</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44362.76895833333</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16632,10 +16204,8 @@
           <t>4733017932</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:25:34</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44362.76775462963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16708,10 +16278,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:24:12</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44362.76680555556</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16779,10 +16347,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:23:50</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44362.76655092592</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16850,10 +16416,8 @@
           <t>4733013656</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:23:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44362.76641203704</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16925,10 +16489,8 @@
           <t>4733007921</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:23:15</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44362.76614583333</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16992,10 +16554,8 @@
           <t>4733011454</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:22:30</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44362.765625</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17063,10 +16623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:21:58</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44362.76525462963</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17130,10 +16688,8 @@
           <t>4732978744</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:18:34</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44362.76289351852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17201,10 +16757,8 @@
           <t>4732981414</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:17:25</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44362.7620949074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17280,10 +16834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:16:16</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44362.7612962963</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17355,10 +16907,8 @@
           <t>4731891756</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:13:37</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44362.75945601852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17426,10 +16976,8 @@
           <t>4732955226</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:13:33</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44362.75940972222</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17497,10 +17045,8 @@
           <t>4732952668</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:12:52</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44362.75893518519</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17568,10 +17114,8 @@
           <t>4732938277</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:10:33</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44362.75732638889</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17639,10 +17183,8 @@
           <t>4732376628</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:38</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44362.75668981481</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17710,10 +17252,8 @@
           <t>4731932579</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:24</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44362.75652777778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17778,10 +17318,8 @@
           <t>4732926934</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:01</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44362.75626157408</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17846,10 +17384,8 @@
           <t>4732926264</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:08:38</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44362.75599537037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17921,10 +17457,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:07:30</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44362.75520833334</v>
       </c>
       <c r="I242" t="n">
         <v>6</v>
@@ -18000,10 +17534,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:05:37</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44362.75390046297</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18079,10 +17611,8 @@
           <t>4732541452</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:05:35</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44362.75387731481</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18158,10 +17688,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:05:24</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44362.75375</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18237,10 +17765,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:04:56</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44362.75342592593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18316,10 +17842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:04:19</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44362.75299768519</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18391,10 +17915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:02:13</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44362.75153935186</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18466,10 +17988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:01:26</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44362.75099537037</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18541,10 +18061,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:01:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44362.75081018519</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18612,10 +18130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:00:47</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44362.75054398148</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18692,10 +18208,8 @@
           <t>4732877821</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:00:08</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44362.75009259259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18763,10 +18277,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:59:27</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44362.74961805555</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18838,10 +18350,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:59:24</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44362.74958333333</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18913,10 +18423,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:56:33</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44362.74760416667</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18992,10 +18500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:42</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44362.74631944444</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19071,10 +18577,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:35</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44362.74623842593</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19150,10 +18654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:05</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44362.7458912037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19229,10 +18731,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:00</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44362.74583333333</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19308,10 +18808,8 @@
           <t>4732831285</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:51:03</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44362.74378472222</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19383,10 +18881,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:50</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44362.74363425926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19458,10 +18954,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44362.74322916667</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19533,10 +19027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:08</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44362.74314814815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19608,10 +19100,8 @@
           <t>4732822931</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:49:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44362.74299768519</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19679,10 +19169,8 @@
           <t>4732813991</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:49:37</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44362.74278935185</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19758,10 +19246,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:49:21</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44362.74260416667</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19837,10 +19323,8 @@
           <t>4732817480</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:48:55</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44362.74230324074</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19916,10 +19400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:48:32</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44362.74203703704</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19995,10 +19477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:46:50</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44362.74085648148</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20066,10 +19546,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:43:51</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44362.73878472222</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20137,10 +19615,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:43:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44362.73829861111</v>
       </c>
       <c r="I271" t="n">
         <v>40</v>
@@ -20200,10 +19676,8 @@
           <t>4731942229</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:43:01</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44362.73820601852</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20263,10 +19737,8 @@
           <t>4732541452</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:42:18</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44362.73770833333</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20326,10 +19798,8 @@
           <t>4732781091</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:42:12</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44362.73763888889</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20401,10 +19871,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:41:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44362.73699074074</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20472,10 +19940,8 @@
           <t>4732778841</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:41:16</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44362.73699074074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20547,10 +20013,8 @@
           <t>4732773527</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:40:45</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44362.73663194444</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20610,10 +20074,8 @@
           <t>4732776862</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:40:04</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44362.73615740741</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20681,10 +20143,8 @@
           <t>4732764376</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:38:32</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44362.73509259259</v>
       </c>
       <c r="I279" t="n">
         <v>8</v>
@@ -20756,10 +20216,8 @@
           <t>4732764288</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:38:28</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44362.73504629629</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20819,10 +20277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:37:36</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44362.73444444445</v>
       </c>
       <c r="I281" t="n">
         <v>473</v>
@@ -20886,10 +20342,8 @@
           <t>4732756321</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:36:32</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44362.73370370371</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20961,10 +20415,8 @@
           <t>4732750330</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:35:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44362.73319444444</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21032,10 +20484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:35:41</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44362.73311342593</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21108,10 +20558,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:35:41</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44362.73311342593</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21183,10 +20631,8 @@
           <t>4732744132</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:35:07</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44362.73271990741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21258,10 +20704,8 @@
           <t>4732748225</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:34:45</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44362.73246527778</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21337,10 +20781,8 @@
           <t>4732742994</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:34:28</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44362.73226851852</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21412,10 +20854,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:30:15</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44362.72934027778</v>
       </c>
       <c r="I289" t="n">
         <v>8</v>
@@ -21483,10 +20923,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:29:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44362.72856481482</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21570,10 +21008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:16</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44362.72657407408</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21641,10 +21077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:14</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44362.72655092592</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21712,10 +21146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:14</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44362.72655092592</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21775,10 +21207,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:25:27</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44362.72600694445</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21842,10 +21272,8 @@
           <t>4732697913</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:25:20</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44362.72592592592</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21917,10 +21345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:24:44</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44362.72550925926</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21996,10 +21422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:20:39</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44362.72267361111</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22075,10 +21499,8 @@
           <t>4732659215</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:16:51</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44362.72003472222</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22146,10 +21568,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:15:50</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44362.7193287037</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22221,10 +21641,8 @@
           <t>4732645864</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:13:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44362.71800925926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22292,10 +21710,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:10:55</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44362.71591435185</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22367,10 +21783,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:10:26</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44362.7155787037</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22438,10 +21852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:08:39</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44362.71434027778</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22513,10 +21925,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:08:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44362.71417824074</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22580,10 +21990,8 @@
           <t>4732062066</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:07:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44362.71357638889</v>
       </c>
       <c r="I305" t="n">
         <v>11</v>
@@ -22647,10 +22055,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:06:47</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44362.71304398148</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22714,10 +22120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:04:17</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44362.71130787037</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22785,10 +22189,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:04:13</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44362.71126157408</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22860,10 +22262,8 @@
           <t>4732599305</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:04:00</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44362.71111111111</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22931,10 +22331,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:01:05</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44362.70908564814</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22994,10 +22392,8 @@
           <t>4732368842</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:01:05</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44362.70908564814</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23069,10 +22465,8 @@
           <t>4732579300</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:00:33</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44362.70871527777</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23132,10 +22526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:58:29</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44362.7072800926</v>
       </c>
       <c r="I313" t="n">
         <v>43</v>
@@ -23199,10 +22591,8 @@
           <t>4732541452</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:50:25</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44362.70167824074</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23278,10 +22668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:49:40</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44362.70115740741</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23359,10 +22747,8 @@
           <t>4732533360</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:49:34</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44362.70108796296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23430,10 +22816,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:49:08</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44362.70078703704</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23509,10 +22893,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:46:29</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44362.69894675926</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23576,10 +22958,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:45:01</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44362.69792824074</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -23647,10 +23027,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:44:41</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44362.69769675926</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23726,10 +23104,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:43:29</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44362.69686342592</v>
       </c>
       <c r="I321" t="n">
         <v>4</v>
@@ -23794,10 +23170,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:41:19</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44362.6953587963</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23857,10 +23231,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:58</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44362.69511574074</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23932,10 +23304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:25</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44362.6947337963</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23999,10 +23369,8 @@
           <t>4732489709</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:39:47</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44362.69429398148</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24078,10 +23446,8 @@
           <t>4732493106</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:39:04</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44362.6937962963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24141,10 +23507,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:38:44</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44362.69356481481</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24208,10 +23572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:38:22</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44362.69331018518</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24279,10 +23641,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:37:37</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44362.69278935185</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24350,10 +23710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:37:36</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44362.69277777777</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24413,10 +23771,8 @@
           <t>4732485928</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:37:06</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44362.69243055556</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24488,10 +23844,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:35:32</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44362.6913425926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24567,10 +23921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:29:47</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44362.68734953704</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24642,10 +23994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:27:25</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44362.68570601852</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -24713,10 +24063,8 @@
           <t>4732446508</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:27:07</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44362.68549768518</v>
       </c>
       <c r="I335" t="n">
         <v>2</v>
@@ -24784,10 +24132,8 @@
           <t>4732441116</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:24</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44362.685</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24859,10 +24205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:47</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44362.68457175926</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24935,10 +24279,8 @@
           <t>4732437631</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:34</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44362.6844212963</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -25010,10 +24352,8 @@
           <t>4732437187</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:14</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44362.68418981481</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25077,10 +24417,8 @@
           <t>4732437110</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:10</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44362.68414351852</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25152,10 +24490,8 @@
           <t>4732433820</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:25:09</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44362.68413194444</v>
       </c>
       <c r="I341" t="n">
         <v>4</v>
@@ -25231,10 +24567,8 @@
           <t>4731891756</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:24:43</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44362.68383101852</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25302,10 +24636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:24:37</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44362.68376157407</v>
       </c>
       <c r="I343" t="n">
         <v>90</v>
@@ -25377,10 +24709,8 @@
           <t>4732427728</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:23:55</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44362.68327546296</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25440,10 +24770,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:22:38</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44362.68238425926</v>
       </c>
       <c r="I345" t="n">
         <v>6</v>
@@ -25515,10 +24843,8 @@
           <t>4732422237</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:21:32</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44362.68162037037</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25586,10 +24912,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:21:22</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44362.68150462963</v>
       </c>
       <c r="I347" t="n">
         <v>7</v>
@@ -25657,10 +24981,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:44</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44362.67967592592</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25732,10 +25054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:35</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44362.67957175926</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25811,10 +25131,8 @@
           <t>4732410519</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:33</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44362.67954861111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25890,10 +25208,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:21</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44362.67940972222</v>
       </c>
       <c r="I351" t="n">
         <v>4</v>
@@ -25965,10 +25281,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:14</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44362.67932870371</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26044,10 +25358,8 @@
           <t>4732407529</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:18:02</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44362.67918981481</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26123,10 +25435,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:17:44</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44362.67898148148</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26194,10 +25504,8 @@
           <t>4732397738</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:16:28</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44362.67810185185</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26273,10 +25581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:14:51</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44362.67697916667</v>
       </c>
       <c r="I356" t="n">
         <v>14</v>
@@ -26344,10 +25650,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:13:06</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44362.67576388889</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26419,10 +25723,8 @@
           <t>4732390034</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:28</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44362.67532407407</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26498,10 +25800,8 @@
           <t>4732374112</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:10:47</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44362.67415509259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26573,10 +25873,8 @@
           <t>4732369695</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:10:33</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44362.67399305556</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -26640,10 +25938,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:09:58</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44362.67358796296</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26707,10 +26003,8 @@
           <t>4732368842</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:09:55</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44362.67355324074</v>
       </c>
       <c r="I362" t="n">
         <v>7</v>
@@ -26782,10 +26076,8 @@
           <t>4732376628</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:09:52</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44362.67351851852</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26849,10 +26141,8 @@
           <t>4732371251</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:08:41</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44362.67269675926</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26924,10 +26214,8 @@
           <t>4732366733</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:08:19</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44362.67244212963</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -26999,10 +26287,8 @@
           <t>4732363259</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:07:18</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44362.67173611111</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27070,10 +26356,8 @@
           <t>4732359168</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:07:09</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44362.67163194445</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27146,10 +26430,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:05:18</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44362.67034722222</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27209,10 +26491,8 @@
           <t>4732356122</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:04:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44362.67009259259</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27284,10 +26564,8 @@
           <t>4732351280</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:04:20</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44362.66967592593</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27355,10 +26633,8 @@
           <t>4732344772</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:56</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44362.66939814815</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27418,10 +26694,8 @@
           <t>4732344745</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:55</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44362.66938657407</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27489,10 +26763,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44362.66936342593</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27568,10 +26840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:08</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44362.66884259259</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27639,10 +26909,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:05</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44362.66880787037</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27710,10 +26978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:34</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44362.66775462963</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27789,10 +27055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:18</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44362.66756944444</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27856,10 +27120,8 @@
           <t>4732336864</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:02</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44362.66738425926</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -27927,10 +27189,8 @@
           <t>4732334877</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:01</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44362.66737268519</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27998,10 +27258,8 @@
           <t>4732335211</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:59:50</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44362.66655092593</v>
       </c>
       <c r="I380" t="n">
         <v>17</v>
@@ -28069,10 +27327,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:59:14</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44362.66613425926</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28144,10 +27400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:58:19</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44362.66549768519</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28215,10 +27469,8 @@
           <t>4732322839</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:58:04</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44362.66532407407</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28290,10 +27542,8 @@
           <t>4731909375</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:57:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44362.66484953704</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28365,10 +27615,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:29</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44362.66422453704</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28436,10 +27684,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:56:25</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44362.66417824074</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28511,10 +27757,8 @@
           <t>4732309501</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:31</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44362.66355324074</v>
       </c>
       <c r="I387" t="n">
         <v>5</v>
@@ -28582,10 +27826,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:11</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44362.66332175926</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28657,10 +27899,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:54:48</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44362.66305555555</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28732,10 +27972,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:54:34</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44362.66289351852</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -28807,10 +28045,8 @@
           <t>4731909375</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:54:18</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44362.66270833334</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -28886,10 +28122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:54:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44362.66261574074</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28957,10 +28191,8 @@
           <t>4732307064</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:53:42</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44362.66229166667</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29036,10 +28268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:47</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44362.66165509259</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29111,10 +28341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:18</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44362.66131944444</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29182,10 +28410,8 @@
           <t>4732305195</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:16</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44362.6612962963</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29253,10 +28479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:02</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44362.66113425926</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29320,10 +28544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:01</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44362.66112268518</v>
       </c>
       <c r="I398" t="n">
         <v>40</v>
@@ -29399,10 +28621,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:50:21</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44362.65996527778</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29470,10 +28690,8 @@
           <t>4732296283</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:50:08</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44362.65981481481</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29549,10 +28767,8 @@
           <t>4732292214</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:49:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44362.65966435185</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29616,10 +28832,8 @@
           <t>4732276844</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:45:43</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44362.65674768519</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29688,10 +28902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:45:26</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44362.65655092592</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29759,10 +28971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:51</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44362.65614583333</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29830,10 +29040,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:51</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44362.65614583333</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29901,10 +29109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:39</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44362.65600694445</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29980,10 +29186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:05</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44362.65561342592</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -30055,10 +29259,8 @@
           <t>4732264679</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:44:05</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44362.65561342592</v>
       </c>
       <c r="I408" t="n">
         <v>6</v>
@@ -30130,10 +29332,8 @@
           <t>4732267992</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:43:52</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44362.65546296296</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30201,10 +29401,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:42:24</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44362.65444444444</v>
       </c>
       <c r="I410" t="n">
         <v>10</v>
@@ -30272,10 +29470,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:41:04</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44362.65351851852</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30339,10 +29535,8 @@
           <t>4732249940</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:40:17</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44362.65297453704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30406,10 +29600,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:40:09</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44362.65288194444</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30477,10 +29669,8 @@
           <t>4732248881</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:39:27</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44362.65239583333</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30548,10 +29738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:39:01</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44362.6520949074</v>
       </c>
       <c r="I415" t="n">
         <v>10</v>
@@ -30623,10 +29811,8 @@
           <t>4732251768</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:38:57</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44362.65204861111</v>
       </c>
       <c r="I416" t="n">
         <v>15</v>
@@ -30698,10 +29884,8 @@
           <t>4732256217</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:38:50</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44362.6519675926</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -30765,10 +29949,8 @@
           <t>4732247070</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:38:03</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44362.65142361111</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30836,10 +30018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:37:19</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44362.65091435185</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30915,10 +30095,8 @@
           <t>4732239146</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:55</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44362.65063657407</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30990,10 +30168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:29</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44362.65033564815</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31065,10 +30241,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:29</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44362.65033564815</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31132,10 +30306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:26</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44362.65030092592</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31199,10 +30371,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:36:24</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44362.65027777778</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31266,10 +30436,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:35:48</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44362.64986111111</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31337,10 +30505,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:34:30</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44362.64895833333</v>
       </c>
       <c r="I426" t="n">
         <v>60</v>
@@ -31404,10 +30570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:32:48</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44362.64777777778</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31471,10 +30635,8 @@
           <t>4732227901</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:32:15</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44362.64739583333</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31551,10 +30713,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:31:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44362.64702546296</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31635,10 +30795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:31:23</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44362.64679398148</v>
       </c>
       <c r="I430" t="n">
         <v>50</v>
@@ -31702,10 +30860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:30:00</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44362.64583333334</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31774,10 +30930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:29:47</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44362.64568287037</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31841,10 +30995,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:28:16</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44362.64462962963</v>
       </c>
       <c r="I433" t="n">
         <v>55</v>
@@ -31908,10 +31060,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:27:56</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44362.64439814815</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31975,10 +31125,8 @@
           <t>4732211923</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:27:34</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44362.64414351852</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32054,10 +31202,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:27:29</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44362.64408564815</v>
       </c>
       <c r="I436" t="n">
         <v>27</v>
@@ -32125,10 +31271,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:26:37</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44362.6434837963</v>
       </c>
       <c r="I437" t="n">
         <v>5</v>
@@ -32196,10 +31340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:26:34</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44362.64344907407</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32271,10 +31413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:23:30</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44362.64131944445</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32346,10 +31486,8 @@
           <t>4732195019</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:22:06</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44362.64034722222</v>
       </c>
       <c r="I440" t="n">
         <v>2</v>
@@ -32417,10 +31555,8 @@
           <t>4732183640</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:21:03</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44362.63961805555</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32484,10 +31620,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:50</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44362.63877314814</v>
       </c>
       <c r="I442" t="n">
         <v>7</v>
@@ -32551,10 +31685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:27</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44362.63850694444</v>
       </c>
       <c r="I443" t="n">
         <v>3</v>
@@ -32626,10 +31758,8 @@
           <t>4732172909</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:12</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44362.63833333334</v>
       </c>
       <c r="I444" t="n">
         <v>34</v>
@@ -32705,10 +31835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:02</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44362.63821759259</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -32780,10 +31908,8 @@
           <t>4732180587</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:18:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44362.63796296297</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32851,10 +31977,8 @@
           <t>4732164981</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:18:03</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44362.63753472222</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -32922,10 +32046,8 @@
           <t>4732169485</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:48</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44362.63736111111</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32997,10 +32119,8 @@
           <t>4732169115</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:31</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44362.63716435185</v>
       </c>
       <c r="I449" t="n">
         <v>63</v>
@@ -33072,10 +32192,8 @@
           <t>4732163680</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:00</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44362.63680555556</v>
       </c>
       <c r="I450" t="n">
         <v>41</v>
@@ -33139,10 +32257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:16:53</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44362.63672453703</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33210,10 +32326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:15:05</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44362.63547453703</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33289,10 +32403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:14:19</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44362.63494212963</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33361,10 +32473,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:13:42</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44362.63451388889</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33424,10 +32534,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:54</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44362.63395833333</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33491,10 +32599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:40</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44362.63379629629</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33570,10 +32676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:12:37</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44362.63376157408</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33634,10 +32738,8 @@
           <t>4732147229</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:52</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44362.63324074074</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33709,10 +32811,8 @@
           <t>4732147083</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:44</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44362.63314814815</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33772,10 +32872,8 @@
           <t>4732151487</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:35</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44362.63304398148</v>
       </c>
       <c r="I460" t="n">
         <v>4</v>
@@ -33844,10 +32942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:54</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44362.63256944445</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33919,10 +33015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:48</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44362.6325</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -33982,10 +33076,8 @@
           <t>4732145257</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:18</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44362.63215277778</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34049,10 +33141,8 @@
           <t>4732141434</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:10</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44362.63206018518</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34120,10 +33210,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:09</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44362.63204861111</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34187,10 +33275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:09:29</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44362.63158564815</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34254,10 +33340,8 @@
           <t>4732129927</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:09:00</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44362.63125</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34321,10 +33405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:08:48</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44362.63111111111</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34400,10 +33482,8 @@
           <t>4732135288</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:06:49</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44362.6297337963</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34475,10 +33555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:54</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44362.62909722222</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34546,10 +33624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:04:17</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44362.62797453703</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34613,10 +33689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:03:25</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44362.62737268519</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -34684,10 +33758,8 @@
           <t>4732112412</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:02:57</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44362.62704861111</v>
       </c>
       <c r="I473" t="n">
         <v>28</v>
@@ -34757,10 +33829,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:02:07</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44362.62646990741</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -34828,10 +33898,8 @@
           <t>4732108768</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:01:43</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44362.62619212963</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34895,10 +33963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:30</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44362.62534722222</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34962,10 +34028,8 @@
           <t>4732102851</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:28</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44362.62532407408</v>
       </c>
       <c r="I477" t="n">
         <v>33</v>
@@ -35033,10 +34097,8 @@
           <t>4732107117</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:24</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44362.62527777778</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35114,10 +34176,8 @@
           <t>4732102504</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:13</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44362.62515046296</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35181,10 +34241,8 @@
           <t>4732102411</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:08</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44362.62509259259</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35256,10 +34314,8 @@
           <t>4732102125</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:55</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44362.62494212963</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35323,10 +34379,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:49</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44362.62487268518</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35395,10 +34449,8 @@
           <t>4732101817</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:40</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44362.62476851852</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -35466,10 +34518,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:56</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44362.62425925926</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35537,10 +34587,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:39</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44362.6240625</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35610,10 +34658,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:29</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44362.62394675926</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35681,10 +34727,8 @@
           <t>4732100006</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:14</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44362.62377314815</v>
       </c>
       <c r="I487" t="n">
         <v>4</v>
@@ -35754,10 +34798,8 @@
           <t>4732094183</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:10</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44362.62372685185</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35829,10 +34871,8 @@
           <t>4732095430</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:34</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44362.62331018518</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35908,10 +34948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:16</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44362.62310185185</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -35975,10 +35013,8 @@
           <t>4732092453</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:56:49</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44362.62278935185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36054,10 +35090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:56:08</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44362.62231481481</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36125,10 +35159,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:55:32</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44362.62189814815</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36192,10 +35224,8 @@
           <t>4732085718</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:54:48</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44362.62138888889</v>
       </c>
       <c r="I494" t="n">
         <v>2</v>
@@ -36267,10 +35297,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:53:59</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44362.62082175926</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36342,10 +35370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:53:04</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44362.62018518519</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36417,10 +35443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:51:49</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44362.61931712963</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36492,10 +35516,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:51:29</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44362.61908564815</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36559,10 +35581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:50:55</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44362.61869212963</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36638,10 +35658,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:50:09</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44362.61815972222</v>
       </c>
       <c r="I500" t="n">
         <v>3</v>
@@ -36713,10 +35731,8 @@
           <t>4732062066</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:49</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44362.6172337963</v>
       </c>
       <c r="I501" t="n">
         <v>11</v>
@@ -36788,10 +35804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:26</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44362.61696759259</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36863,10 +35877,8 @@
           <t>4732053342</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:22</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44362.6169212963</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36942,10 +35954,8 @@
           <t>4732039636</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:27</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44362.61489583334</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37013,10 +36023,8 @@
           <t>4732039234</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:08</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44362.61467592593</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37092,10 +36100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:38</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44362.61293981481</v>
       </c>
       <c r="I506" t="n">
         <v>12</v>
@@ -37163,10 +36169,8 @@
           <t>4732034105</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:36</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44362.61291666667</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37238,10 +36242,8 @@
           <t>4732033948</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:28</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44362.61282407407</v>
       </c>
       <c r="I508" t="n">
         <v>5</v>
@@ -37313,10 +36315,8 @@
           <t>4732033215</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:54</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44362.61243055556</v>
       </c>
       <c r="I509" t="n">
         <v>18</v>
@@ -37392,10 +36392,8 @@
           <t>4732008180</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44362.61196759259</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37467,10 +36465,8 @@
           <t>4732032143</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:04</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44362.61185185185</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37538,10 +36534,8 @@
           <t>4731948122</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:03</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44362.61184027778</v>
       </c>
       <c r="I512" t="n">
         <v>7</v>
@@ -37613,10 +36607,8 @@
           <t>4732023853</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:40:52</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44362.61171296296</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37692,10 +36684,8 @@
           <t>4732023547</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:40:38</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44362.61155092593</v>
       </c>
       <c r="I514" t="n">
         <v>2</v>
@@ -37771,10 +36761,8 @@
           <t>4732008180</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:38:26</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44362.61002314815</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37838,10 +36826,8 @@
           <t>4732008180</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:36:21</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44362.60857638889</v>
       </c>
       <c r="I516" t="n">
         <v>4</v>
@@ -37913,10 +36899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:36:06</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44362.60840277778</v>
       </c>
       <c r="I517" t="n">
         <v>26</v>
@@ -37990,10 +36974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:36:00</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44362.60833333333</v>
       </c>
       <c r="I518" t="n">
         <v>2</v>
@@ -38069,10 +37051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:35:26</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44362.60793981481</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38141,10 +37121,8 @@
           <t>4732006224</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:49</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44362.60751157408</v>
       </c>
       <c r="I520" t="n">
         <v>13</v>
@@ -38212,10 +37190,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:51</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44362.60684027777</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38289,10 +37265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:41</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44362.60672453704</v>
       </c>
       <c r="I522" t="n">
         <v>150</v>
@@ -38364,10 +37338,8 @@
           <t>4731905240</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:38</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44362.60668981481</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38439,10 +37411,8 @@
           <t>4732002590</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:38</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44362.60668981481</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38514,10 +37484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:49</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44362.60612268518</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -38581,10 +37549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:34</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44362.60594907407</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38660,10 +37626,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:27</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44362.60586805556</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -38731,10 +37695,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:32:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44362.60575231481</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38798,10 +37760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:57</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44362.60552083333</v>
       </c>
       <c r="I529" t="n">
         <v>1242</v>
@@ -38871,10 +37831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:46</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44362.60539351852</v>
       </c>
       <c r="I530" t="n">
         <v>59</v>
@@ -38934,10 +37892,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:46</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44362.60539351852</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39009,10 +37965,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:13</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44362.60431712963</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39084,10 +38038,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:33</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44362.60385416666</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39151,10 +38103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:47</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44362.60332175926</v>
       </c>
       <c r="I534" t="n">
         <v>4</v>
@@ -39222,10 +38172,8 @@
           <t>4731977894</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:28:24</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44362.60305555556</v>
       </c>
       <c r="I535" t="n">
         <v>9</v>
@@ -39289,10 +38237,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:27:34</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44362.60247685185</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39368,10 +38314,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:27:15</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44362.60225694445</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39443,10 +38387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:41</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44362.60186342592</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39510,10 +38452,8 @@
           <t>4731973093</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:16</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44362.60157407408</v>
       </c>
       <c r="I539" t="n">
         <v>3</v>
@@ -39581,10 +38521,8 @@
           <t>4731972892</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:08</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44362.60148148148</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39660,10 +38598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:02</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44362.60141203704</v>
       </c>
       <c r="I541" t="n">
         <v>2</v>
@@ -39735,10 +38671,8 @@
           <t>4731964267</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:25:32</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44362.60106481481</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39802,10 +38736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:25:21</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44362.6009375</v>
       </c>
       <c r="I543" t="n">
         <v>4</v>
@@ -39873,10 +38805,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:34</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44362.60039351852</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -39944,10 +38874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:24</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44362.60027777778</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40019,10 +38947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:23:57</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44362.59996527778</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40094,10 +39020,8 @@
           <t>4731965236</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:51</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44362.59920138889</v>
       </c>
       <c r="I547" t="n">
         <v>3</v>
@@ -40161,10 +39085,8 @@
           <t>4731958697</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:48</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44362.59916666667</v>
       </c>
       <c r="I548" t="n">
         <v>24</v>
@@ -40232,10 +39154,8 @@
           <t>4731965157</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:47</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44362.59915509259</v>
       </c>
       <c r="I549" t="n">
         <v>17</v>
@@ -40307,10 +39227,8 @@
           <t>4731954610</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:19</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44362.59883101852</v>
       </c>
       <c r="I550" t="n">
         <v>26</v>
@@ -40378,10 +39296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:08</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44362.5987037037</v>
       </c>
       <c r="I551" t="n">
         <v>313</v>
@@ -40457,10 +39373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:05</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44362.59866898148</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40532,10 +39446,8 @@
           <t>4731949751</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:59</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44362.59859953704</v>
       </c>
       <c r="I553" t="n">
         <v>4</v>
@@ -40603,10 +39515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:52</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44362.59851851852</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40670,10 +39580,8 @@
           <t>4731956957</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:28</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44362.59824074074</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -40741,10 +39649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:19</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44362.59813657407</v>
       </c>
       <c r="I556" t="n">
         <v>42</v>
@@ -40820,10 +39726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:13</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44362.59806712963</v>
       </c>
       <c r="I557" t="n">
         <v>2</v>
@@ -40891,10 +39795,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:54</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44362.59784722222</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40966,10 +39868,8 @@
           <t>4731948122</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:40</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44362.59768518519</v>
       </c>
       <c r="I559" t="n">
         <v>157</v>
@@ -41037,10 +39937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:52</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44362.59712962963</v>
       </c>
       <c r="I560" t="n">
         <v>2</v>
@@ -41104,10 +40002,8 @@
           <t>4731944635</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:40</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44362.59699074074</v>
       </c>
       <c r="I561" t="n">
         <v>61</v>
@@ -41183,10 +40079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:38</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44362.5969675926</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41254,10 +40148,8 @@
           <t>4731946650</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:33</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44362.59690972222</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41325,10 +40217,8 @@
           <t>4731944286</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:24</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44362.59680555556</v>
       </c>
       <c r="I564" t="n">
         <v>10</v>
@@ -41396,10 +40286,8 @@
           <t>4731944228</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:22</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44362.59678240741</v>
       </c>
       <c r="I565" t="n">
         <v>17</v>
@@ -41471,10 +40359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:19</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44362.59674768519</v>
       </c>
       <c r="I566" t="n">
         <v>9</v>
@@ -41547,10 +40433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:49</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44362.59640046296</v>
       </c>
       <c r="I567" t="n">
         <v>21</v>
@@ -41624,10 +40508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:21</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44362.59607638889</v>
       </c>
       <c r="I568" t="n">
         <v>2</v>
@@ -41703,10 +40585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:46</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44362.59567129629</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41774,10 +40654,8 @@
           <t>4731942248</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:45</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44362.59565972222</v>
       </c>
       <c r="I570" t="n">
         <v>31</v>
@@ -41849,10 +40727,8 @@
           <t>4731942229</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:44</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44362.59564814815</v>
       </c>
       <c r="I571" t="n">
         <v>11</v>
@@ -41920,10 +40796,8 @@
           <t>4731938564</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:33</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44362.59552083333</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -41987,10 +40861,8 @@
           <t>4731934064</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:31</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44362.59549768519</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42062,10 +40934,8 @@
           <t>4731941768</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:22</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44362.59539351852</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42130,10 +41000,8 @@
           <t>4731933792</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:18</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44362.59534722222</v>
       </c>
       <c r="I575" t="n">
         <v>108</v>
@@ -42205,10 +41073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:58</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44362.59511574074</v>
       </c>
       <c r="I576" t="n">
         <v>500</v>
@@ -42276,10 +41142,8 @@
           <t>4731937814</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:56</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44362.59509259259</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42343,10 +41207,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:51</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44362.59503472222</v>
       </c>
       <c r="I578" t="n">
         <v>3</v>
@@ -42422,10 +41284,8 @@
           <t>4731937550</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:44</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44362.5949537037</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42493,10 +41353,8 @@
           <t>4731940708</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:32</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44362.59481481482</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42560,10 +41418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:28</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44362.59476851852</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42639,10 +41495,8 @@
           <t>4731932579</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:19</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44362.59466435185</v>
       </c>
       <c r="I582" t="n">
         <v>19</v>
@@ -42710,10 +41564,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:45</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44362.59427083333</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42789,10 +41641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:41</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44362.59422453704</v>
       </c>
       <c r="I584" t="n">
         <v>60</v>
@@ -42856,10 +41706,8 @@
           <t>4731936152</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:36</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44362.59416666667</v>
       </c>
       <c r="I585" t="n">
         <v>126</v>
@@ -42923,10 +41771,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:22</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44362.59400462963</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -42994,10 +41840,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:05</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44362.59380787037</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43073,10 +41917,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:30</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44362.59340277778</v>
       </c>
       <c r="I588" t="n">
         <v>4</v>
@@ -43148,10 +41990,8 @@
           <t>4731919586</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:54</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44362.59298611111</v>
       </c>
       <c r="I589" t="n">
         <v>7</v>
@@ -43227,10 +42067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:40</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44362.59282407408</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43298,10 +42136,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:39</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44362.5928125</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43365,10 +42201,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:18</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44362.59256944444</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43440,10 +42274,8 @@
           <t>4731926162</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:58</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44362.59233796296</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43511,10 +42343,8 @@
           <t>4731922781</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:53</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44362.59228009259</v>
       </c>
       <c r="I594" t="n">
         <v>3</v>
@@ -43578,10 +42408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:49</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44362.5922337963</v>
       </c>
       <c r="I595" t="n">
         <v>49</v>
@@ -43645,10 +42473,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:48</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44362.59222222222</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43716,10 +42542,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:40</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44362.59212962963</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43787,10 +42611,8 @@
           <t>4731922362</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:32</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44362.59203703704</v>
       </c>
       <c r="I598" t="n">
         <v>7</v>
@@ -43858,10 +42680,8 @@
           <t>4731925571</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:30</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44362.59201388889</v>
       </c>
       <c r="I599" t="n">
         <v>14</v>
@@ -43929,10 +42749,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:24</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44362.59194444444</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44008,10 +42826,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:20</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44362.59189814814</v>
       </c>
       <c r="I601" t="n">
         <v>2</v>
@@ -44087,10 +42903,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:16</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44362.59185185185</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44166,10 +42980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:13</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44362.59181712963</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44233,10 +43045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:50</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44362.59155092593</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44304,10 +43114,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:49</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44362.59153935185</v>
       </c>
       <c r="I605" t="n">
         <v>4</v>
@@ -44383,10 +43191,8 @@
           <t>4731916710</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:35</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44362.59137731481</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44446,10 +43252,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:27</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44362.59128472222</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -44525,10 +43329,8 @@
           <t>4731920592</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:05</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44362.59103009259</v>
       </c>
       <c r="I608" t="n">
         <v>223</v>
@@ -44596,10 +43398,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:45</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44362.59079861111</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44671,10 +43471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:32</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44362.59064814815</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44742,10 +43540,8 @@
           <t>4731909375</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:08</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44362.59037037037</v>
       </c>
       <c r="I611" t="n">
         <v>38</v>
@@ -44816,10 +43612,8 @@
           <t>4731908820</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:42</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44362.59006944444</v>
       </c>
       <c r="I612" t="n">
         <v>101</v>
@@ -44883,10 +43677,8 @@
           <t>4731908792</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:41</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44362.59005787037</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44962,10 +43754,8 @@
           <t>4731904188</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:37</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44362.59001157407</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45029,10 +43819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:33</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44362.58996527778</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45096,10 +43884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:32</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44362.5899537037</v>
       </c>
       <c r="I616" t="n">
         <v>833</v>
@@ -45167,10 +43953,8 @@
           <t>4731911708</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:26</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44362.58988425926</v>
       </c>
       <c r="I617" t="n">
         <v>79</v>
@@ -45246,10 +44030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:18</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44362.58979166667</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45321,10 +44103,8 @@
           <t>4731908312</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:18</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44362.58979166667</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45392,10 +44172,8 @@
           <t>4731908238</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:15</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44362.58975694444</v>
       </c>
       <c r="I620" t="n">
         <v>2</v>
@@ -45471,10 +44249,8 @@
           <t>4731908070</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:07</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44362.58966435185</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -45542,10 +44318,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:04</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44362.58962962963</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -45605,10 +44379,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:51</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44362.58947916667</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45678,10 +44450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:37</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44362.58931712963</v>
       </c>
       <c r="I624" t="n">
         <v>4</v>
@@ -45745,10 +44515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:32</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44362.58925925926</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45816,10 +44584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:26</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44362.58918981482</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45887,10 +44653,8 @@
           <t>4731910249</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:17</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44362.58908564815</v>
       </c>
       <c r="I627" t="n">
         <v>24</v>
@@ -45966,10 +44730,8 @@
           <t>4731902423</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:15</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44362.5890625</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46040,10 +44802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:14</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44362.58905092593</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46119,10 +44879,8 @@
           <t>4731906868</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:12</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44362.58902777778</v>
       </c>
       <c r="I630" t="n">
         <v>23</v>
@@ -46198,10 +44956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:04</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44362.58893518519</v>
       </c>
       <c r="I631" t="n">
         <v>8</v>
@@ -46277,10 +45033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:54</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44362.58881944444</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46352,10 +45106,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:47</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44362.58873842593</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -46431,10 +45183,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:43</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44362.58869212963</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46496,10 +45246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:33</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44362.58857638889</v>
       </c>
       <c r="I635" t="n">
         <v>25</v>
@@ -46567,10 +45315,8 @@
           <t>4731901347</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:27</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44362.58850694444</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -46638,10 +45384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:19</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44362.58841435185</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46705,10 +45449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:19</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44362.58841435185</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46780,10 +45522,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:19</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44362.58841435185</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46843,10 +45583,8 @@
           <t>4731901064</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:14</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44362.58835648148</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -46918,10 +45656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:01</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44362.58820601852</v>
       </c>
       <c r="I641" t="n">
         <v>103</v>
@@ -46989,10 +45725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:01</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44362.58820601852</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47052,10 +45786,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:00</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44362.58819444444</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47123,10 +45855,8 @@
           <t>4731905240</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:58</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44362.58817129629</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47194,10 +45924,8 @@
           <t>4731905196</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:56</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44362.58814814815</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47261,10 +45989,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:56</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44362.58814814815</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47332,10 +46058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:55</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44362.58813657407</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47399,10 +46123,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:54</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44362.588125</v>
       </c>
       <c r="I648" t="n">
         <v>3</v>
@@ -47474,10 +46196,8 @@
           <t>4731905135</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:53</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44362.58811342593</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47548,10 +46268,8 @@
           <t>4731893583</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:42</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44362.58798611111</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47619,10 +46337,8 @@
           <t>4731893583</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:38</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44362.58793981482</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47690,10 +46406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:28</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44362.58782407407</v>
       </c>
       <c r="I652" t="n">
         <v>415</v>
@@ -47769,10 +46483,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:24</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44362.58777777778</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -47844,10 +46556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:23</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44362.5877662037</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -47915,10 +46625,8 @@
           <t>4731893583</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:22</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44362.58775462963</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -47984,10 +46692,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:54</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44362.58743055556</v>
       </c>
       <c r="I656" t="n">
         <v>2</v>
@@ -48055,10 +46761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:51</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44362.58739583333</v>
       </c>
       <c r="I657" t="n">
         <v>3</v>
@@ -48130,10 +46834,8 @@
           <t>4731893681</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:47</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44362.58734953704</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -48201,10 +46903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:46</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44362.58733796296</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48272,10 +46972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:43</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44362.58730324074</v>
       </c>
       <c r="I660" t="n">
         <v>4066</v>
@@ -48351,10 +47049,8 @@
           <t>4731893583</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:42</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44362.58729166666</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48422,10 +47118,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:15</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44362.58697916667</v>
       </c>
       <c r="I662" t="n">
         <v>4</v>
@@ -48501,10 +47195,8 @@
           <t>4731892881</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:09</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44362.58690972222</v>
       </c>
       <c r="I663" t="n">
         <v>3</v>
@@ -48579,10 +47271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:51</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44362.58670138889</v>
       </c>
       <c r="I664" t="n">
         <v>709</v>
@@ -48646,10 +47336,8 @@
           <t>4731895667</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:46</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44362.58664351852</v>
       </c>
       <c r="I665" t="n">
         <v>1</v>
@@ -48709,10 +47397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:44</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44362.58662037037</v>
       </c>
       <c r="I666" t="n">
         <v>19</v>
@@ -48776,10 +47462,8 @@
           <t>4731895439</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:36</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44362.58652777778</v>
       </c>
       <c r="I667" t="n">
         <v>64</v>
@@ -48851,10 +47535,8 @@
           <t>4731891756</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:17</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44362.58630787037</v>
       </c>
       <c r="I668" t="n">
         <v>136</v>
@@ -48932,10 +47614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:58</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44362.58608796296</v>
       </c>
       <c r="I669" t="n">
         <v>10</v>
@@ -49003,10 +47683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:37</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44362.58584490741</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49076,10 +47754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:29</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44362.58575231482</v>
       </c>
       <c r="I671" t="n">
         <v>10</v>
@@ -49147,10 +47823,8 @@
           <t>4731890472</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:17</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44362.58561342592</v>
       </c>
       <c r="I672" t="n">
         <v>8</v>
@@ -49218,10 +47892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:13</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44362.58556712963</v>
       </c>
       <c r="I673" t="n">
         <v>320</v>
@@ -49297,10 +47969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:03</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44362.58545138889</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49364,10 +48034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:58</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44362.58539351852</v>
       </c>
       <c r="I675" t="n">
         <v>10</v>
@@ -49431,10 +48099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:58</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44362.58539351852</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49494,10 +48160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:43</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44362.58521990741</v>
       </c>
       <c r="I677" t="n">
         <v>1</v>
@@ -49561,10 +48225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:30</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44362.58506944445</v>
       </c>
       <c r="I678" t="n">
         <v>96</v>
@@ -49636,10 +48298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:19</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44362.58494212963</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -49711,10 +48371,8 @@
           <t>4731878907</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:04</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44362.58476851852</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49786,10 +48444,8 @@
           <t>4731874330</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:02</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44362.58474537037</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49861,10 +48517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:34</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44362.5844212963</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -49942,10 +48596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:52</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44362.58393518518</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50009,10 +48661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:48</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44362.58388888889</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -50084,10 +48734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:37</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44362.58376157407</v>
       </c>
       <c r="I685" t="n">
         <v>15</v>
@@ -50163,10 +48811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:28</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44362.58365740741</v>
       </c>
       <c r="I686" t="n">
         <v>714</v>
@@ -50245,10 +48891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:26</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44362.58363425926</v>
       </c>
       <c r="I687" t="n">
         <v>1619</v>
@@ -50324,10 +48968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:20</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44362.58356481481</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
